--- a/Bibsam_tidskriftslistor/Uppdateringar/tidskriftslistor_ändringar_009_4apr2023.xlsx
+++ b/Bibsam_tidskriftslistor/Uppdateringar/tidskriftslistor_ändringar_009_4apr2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://chalmers-my.sharepoint.com/personal/larher_chalmers_se/Documents/Documents/GitHub/oa-tskr/Bibsam_tidskriftslistor/Uppdateringar/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="158" documentId="8_{28A0540E-5558-464B-ABC5-8A7595CDC66E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{553A5318-3D39-460A-AC28-A90D7EE2BF88}"/>
+  <xr:revisionPtr revIDLastSave="159" documentId="8_{28A0540E-5558-464B-ABC5-8A7595CDC66E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DAD620BB-F95B-46CD-ACBD-0D09E402AE2A}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FC5585D9-86CC-46C8-92DB-01586C12D4B5}"/>
   </bookViews>
@@ -1873,7 +1873,7 @@
     <col min="5" max="5" width="17" customWidth="1"/>
     <col min="6" max="6" width="18.5703125" customWidth="1"/>
     <col min="7" max="7" width="19.5703125" customWidth="1"/>
-    <col min="8" max="8" width="10" customWidth="1"/>
+    <col min="8" max="8" width="30.7109375" customWidth="1"/>
     <col min="9" max="9" width="13.5703125" customWidth="1"/>
   </cols>
   <sheetData>
